--- a/nsm/가장_많이_이용하는_OTT_서비스의_주_이용_매체_1순위.xlsx
+++ b/nsm/가장_많이_이용하는_OTT_서비스의_주_이용_매체_1순위.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>구분별(1)</t>
   </si>
@@ -90,6 +90,33 @@
     <t>만70세이상</t>
   </si>
   <si>
+    <t>월평균소득</t>
+  </si>
+  <si>
+    <t>소득없음</t>
+  </si>
+  <si>
+    <t>50만원미만</t>
+  </si>
+  <si>
+    <t>50-100만원미만</t>
+  </si>
+  <si>
+    <t>100-200만원미만</t>
+  </si>
+  <si>
+    <t>200-300만원미만</t>
+  </si>
+  <si>
+    <t>300-400만원미만</t>
+  </si>
+  <si>
+    <t>400-500만원미만</t>
+  </si>
+  <si>
+    <t>500만원이상</t>
+  </si>
+  <si>
     <t>지역</t>
   </si>
   <si>
@@ -183,7 +210,7 @@
     <t>○ 자료다운일자</t>
   </si>
   <si>
-    <t>2022.11.15 16:27</t>
+    <t>2022.11.16 10:13</t>
   </si>
   <si>
     <t>○ 통계표URL</t>
@@ -350,8 +377,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.6953125" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="1" max="1" width="14.6484375" customWidth="true"/>
+    <col min="2" max="2" width="18.5546875" customWidth="true"/>
     <col min="3" max="3" width="14.6484375" customWidth="true"/>
     <col min="4" max="4" width="15.625" customWidth="true"/>
     <col min="5" max="5" width="14.6484375" customWidth="true"/>
@@ -946,40 +973,40 @@
         <v>26</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1482.0</v>
+        <v>2477.0</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>96.4</v>
+        <v>94.7</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1626.1</v>
+        <v>2631.2</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>93.3</v>
+        <v>89.0</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>3.0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -990,40 +1017,40 @@
         <v>27</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>524.0</v>
+        <v>138.0</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>99.3</v>
+        <v>96.2</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.0</v>
+        <v>2.2</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="G15" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="I15" s="4" t="n">
+        <v>175.9</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L15" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="I15" s="4" t="n">
-        <v>555.7</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="K15" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="4" t="n">
-        <v>0.3</v>
-      </c>
       <c r="M15" s="4" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>0.4</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -1034,40 +1061,40 @@
         <v>28</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>335.0</v>
+        <v>222.0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>89.3</v>
+        <v>98.4</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>358.0</v>
+        <v>317.8</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>84.2</v>
+        <v>94.9</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>2.9</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -1078,40 +1105,40 @@
         <v>29</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>452.0</v>
+        <v>1120.0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>96.2</v>
+        <v>97.8</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="F17" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="I17" s="4" t="n">
-        <v>499.5</v>
+        <v>1094.2</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>91.3</v>
+        <v>95.4</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N17" s="4" t="n">
         <v>2.5</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -1122,40 +1149,40 @@
         <v>30</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>248.0</v>
+        <v>1961.0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>97.9</v>
+        <v>97.4</v>
       </c>
       <c r="E18" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H18" s="4" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>263.0</v>
+        <v>2118.0</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>95.1</v>
+        <v>94.9</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -1166,40 +1193,40 @@
         <v>31</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>213.0</v>
+        <v>1026.0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>99.5</v>
+        <v>97.7</v>
       </c>
       <c r="E19" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F19" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I19" s="4" t="n">
-        <v>219.8</v>
+        <v>1326.0</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>92.5</v>
+        <v>95.2</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -1210,40 +1237,40 @@
         <v>32</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>176.0</v>
+        <v>266.0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>97.5</v>
+        <v>95.0</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>2.0</v>
+        <v>1.3</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>187.4</v>
+        <v>358.2</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>98.6</v>
+        <v>90.9</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -1254,84 +1281,84 @@
         <v>33</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>1907.0</v>
+        <v>224.0</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>95.6</v>
+        <v>94.7</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="K21" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="L21" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" ht="20.0" customHeight="true">
+      <c r="A22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1482.0</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F22" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v>2226.8</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>91.4</v>
-      </c>
-      <c r="K21" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L21" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M21" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="4" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="22" ht="20.0" customHeight="true">
-      <c r="A22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>87.9</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F22" s="4" t="n">
-        <v>0.3</v>
-      </c>
       <c r="G22" s="4" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>207.4</v>
+        <v>1626.1</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>91.3</v>
+        <v>93.3</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>5.8</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -1339,43 +1366,43 @@
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>264.0</v>
+        <v>524.0</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>98.4</v>
+        <v>99.3</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>1.2</v>
+        <v>0.0</v>
       </c>
       <c r="G23" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I23" s="4" t="n">
-        <v>279.8</v>
+        <v>555.7</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>86.8</v>
+        <v>99.2</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>7.4</v>
+        <v>0.0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>5.8</v>
+        <v>0.0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -1383,43 +1410,43 @@
         <v>14</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>265.0</v>
+        <v>335.0</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>97.9</v>
+        <v>89.3</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F24" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H24" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I24" s="4" t="n">
-        <v>305.8</v>
+        <v>358.0</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>98.4</v>
+        <v>84.2</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>0.3</v>
+        <v>7.6</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>0.0</v>
+        <v>1.4</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -1427,43 +1454,43 @@
         <v>14</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>262.0</v>
+        <v>452.0</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>99.2</v>
+        <v>96.2</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>292.8</v>
+        <v>499.5</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>94.5</v>
+        <v>91.3</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>0.0</v>
+        <v>2.9</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -1471,43 +1498,43 @@
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>245.0</v>
+        <v>248.0</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>100.0</v>
+        <v>97.9</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>279.7</v>
+        <v>263.0</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>91.9</v>
+        <v>95.1</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -1515,43 +1542,43 @@
         <v>14</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>291.0</v>
+        <v>213.0</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>93.0</v>
+        <v>99.5</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>1.8</v>
+        <v>0.0</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>2.7</v>
+        <v>0.0</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>318.2</v>
+        <v>219.8</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>94.4</v>
+        <v>92.5</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>1.0</v>
+        <v>0.2</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>2.0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -1559,43 +1586,43 @@
         <v>14</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>427.0</v>
+        <v>176.0</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>99.8</v>
+        <v>97.5</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>501.1</v>
+        <v>187.4</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>97.8</v>
+        <v>98.6</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -1603,43 +1630,43 @@
         <v>14</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>83.0</v>
+        <v>1907.0</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>95.6</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>84.5</v>
+        <v>2226.8</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>93.6</v>
+        <v>91.4</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="M29" s="4" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
@@ -1647,87 +1674,87 @@
         <v>14</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>79.0</v>
+        <v>181.0</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>100.0</v>
+        <v>87.9</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>0.0</v>
+        <v>4.7</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>0.0</v>
+        <v>3.8</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>0.0</v>
+        <v>3.3</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>88.1</v>
+        <v>207.4</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>70.2</v>
+        <v>91.3</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>12.0</v>
+        <v>0.7</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>8.8</v>
+        <v>0.3</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
-      <c r="A31" s="13" t="s">
-        <v>43</v>
+      <c r="A31" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>822.0</v>
+        <v>264.0</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>98.6</v>
+        <v>98.4</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>951.3</v>
+        <v>279.8</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>94.4</v>
+        <v>86.8</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="M31" s="4" t="n">
-        <v>1.0</v>
+        <v>5.8</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>2.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
@@ -1738,83 +1765,435 @@
         <v>45</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>1586.0</v>
+        <v>265.0</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>97.9</v>
       </c>
       <c r="E32" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>305.8</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>98.4</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>91.9</v>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L34" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="M34" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M35" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="N35" s="4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>501.1</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N37" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H32" s="4" t="n">
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>822.0</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>951.3</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>1586.0</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H40" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I40" s="4" t="n">
         <v>1947.3</v>
       </c>
-      <c r="J32" s="4" t="n">
+      <c r="J40" s="4" t="n">
         <v>96.2</v>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K40" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L40" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="M32" s="4" t="n">
+      <c r="M40" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="N32" s="4" t="n">
+      <c r="N40" s="4" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="4" t="n">
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="4" t="n">
         <v>5027.0</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D41" s="4" t="n">
         <v>95.6</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E41" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F41" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G41" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H41" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I41" s="4" t="n">
         <v>5395.1</v>
       </c>
-      <c r="J33" s="4" t="n">
+      <c r="J41" s="4" t="n">
         <v>91.3</v>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K41" s="4" t="n">
         <v>3.6</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L41" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="M33" s="4" t="n">
+      <c r="M41" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="N33" s="4" t="n">
+      <c r="N41" s="4" t="n">
         <v>2.6</v>
       </c>
     </row>
@@ -1839,50 +2218,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1890,20 +2269,20 @@
         <v>14</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
